--- a/RegressionDataset-Uni.xlsx
+++ b/RegressionDataset-Uni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\OneDrive\Desktop\Università\Magistrale\Secondo anno\Big Data Engineering\KPMG\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F53074-64DF-4B9B-9353-B06D5F5849E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C5DCD-AE69-4610-A098-5DA25687815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,6 +149,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE7E8AA"/>
+      <color rgb="FF4AADA8"/>
       <color rgb="FFFC3636"/>
       <color rgb="FF0C7C63"/>
       <color rgb="FFC10303"/>
@@ -309,6 +311,326 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4AADA8"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7817-46D3-AF3A-649604D33A63}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$2:$A$17</c:f>
@@ -545,34 +867,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -752,7 +1046,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FC3636"/>
+              <a:srgbClr val="4AADA8"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -761,6 +1055,106 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-798F-4EF3-AA4D-44E6D6F63782}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-798F-4EF3-AA4D-44E6D6F63782}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-798F-4EF3-AA4D-44E6D6F63782}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-798F-4EF3-AA4D-44E6D6F63782}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-798F-4EF3-AA4D-44E6D6F63782}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$18:$A$33</c:f>
@@ -997,34 +1391,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1217,7 +1583,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FC3636"/>
+              <a:srgbClr val="4AADA8"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1226,6 +1592,106 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-8082-4737-AA58-79B725884A30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8082-4737-AA58-79B725884A30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8082-4737-AA58-79B725884A30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8082-4737-AA58-79B725884A30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8082-4737-AA58-79B725884A30}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$34:$A$49</c:f>
@@ -1462,34 +1928,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1669,7 +2107,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FC3636"/>
+              <a:srgbClr val="4AADA8"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1678,6 +2116,106 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-F103-44C6-8361-073FA430334E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F103-44C6-8361-073FA430334E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-F103-44C6-8361-073FA430334E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F103-44C6-8361-073FA430334E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-F103-44C6-8361-073FA430334E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Foglio1!$A$50:$A$65</c:f>
@@ -1914,34 +2452,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2747,7 +3257,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2767,30 +3277,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="2017521983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -6014,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S160" sqref="S160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/RegressionDataset-Uni.xlsx
+++ b/RegressionDataset-Uni.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raffa\OneDrive\Desktop\Università\Magistrale\Secondo anno\Big Data Engineering\KPMG\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C5DCD-AE69-4610-A098-5DA25687815B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5852398-B1F9-4722-B8D6-3EFB446247C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="24">
   <si>
     <t>AnnoAccademico</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Roma La Sapienza</t>
+  </si>
+  <si>
+    <t>Bari</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Immatricolati Bologna</a:t>
@@ -789,7 +792,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -845,7 +848,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -947,7 +950,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Immatricolati Milano</a:t>
@@ -1313,7 +1316,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1369,7 +1372,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1471,7 +1474,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Immatricolati Napoli Federico</a:t>
@@ -1479,14 +1482,14 @@
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t> II</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1800" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:endParaRPr>
           </a:p>
@@ -1850,7 +1853,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1906,7 +1909,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2008,7 +2011,7 @@
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
               </a:rPr>
               <a:t>Immatricolati Roma La Sapienza</a:t>
@@ -2374,7 +2377,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2430,7 +2433,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="bg1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3330,6 +3333,530 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="0C7C63"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Immatricolati Bari</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Immatricolati</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4AADA8"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-AF96-4A90-B871-D7D172C71502}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-AF96-4A90-B871-D7D172C71502}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-AF96-4A90-B871-D7D172C71502}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-AF96-4A90-B871-D7D172C71502}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="E7E8AA"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-AF96-4A90-B871-D7D172C71502}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2010/2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011/2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012/2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013/2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014/2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015/2016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016/2017</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017/2018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018/2019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020/2021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021/2022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022/2023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2023/2024</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2024/2025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2025/2026</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$66:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>9168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8958</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7910</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7330</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7695</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7254</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7107</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6960</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-AF96-4A90-B871-D7D172C71502}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1178616735"/>
+        <c:axId val="1178620063"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1178616735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178620063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1178620063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178616735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3574,6 +4101,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -6044,20 +6611,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5838</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>583</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5839</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>172407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>598506</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>21896</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>389330</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>6956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6084,14 +7145,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7472</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>592668</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>390963</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>21313</xdr:rowOff>
     </xdr:to>
@@ -6122,16 +7183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>171823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>592668</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>383492</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>21313</xdr:rowOff>
+      <xdr:rowOff>6372</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6160,14 +7221,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>592668</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>383491</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>21313</xdr:rowOff>
     </xdr:to>
@@ -6227,6 +7288,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>383491</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>21313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F44ADA3-CA49-4B03-A25F-2A635F2B055F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6498,10 +7597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S160" sqref="S160"/>
+    <sheetView tabSelected="1" topLeftCell="D169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7524,6 +8623,187 @@
         <v>19431</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>9168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>8344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>8092</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>7910</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>7218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>7438</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>7695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <f>7695-147</f>
+        <v>7548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78">
+        <f>7548-147</f>
+        <v>7401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <f>7401-147</f>
+        <v>7254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80">
+        <f>7254-147</f>
+        <v>7107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <f>7107-147</f>
+        <v>6960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
